--- a/bar.xlsx
+++ b/bar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>Round</t>
   </si>
@@ -46,6 +46,21 @@
     <t>PPB</t>
   </si>
   <si>
+    <t>Misc. data for processing</t>
+  </si>
+  <si>
+    <t>Tossups</t>
+  </si>
+  <si>
+    <t>0/1/2</t>
+  </si>
+  <si>
+    <t>UNHEARD</t>
+  </si>
+  <si>
+    <t>Bonuses</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
@@ -100,9 +115,18 @@
     <t>Subcategory</t>
   </si>
   <si>
+    <t>Answer</t>
+  </si>
+  <si>
     <t>Cdepth</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER: ​invasion of Earth​ </t>
+  </si>
+  <si>
     <t>Bonus data</t>
   </si>
   <si>
@@ -110,6 +134,105 @@
   </si>
   <si>
     <t>Points earned</t>
+  </si>
+  <si>
+    <t>Heard</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>American History</t>
+  </si>
+  <si>
+    <t>European/British History</t>
+  </si>
+  <si>
+    <t>World/Commonwealth History</t>
+  </si>
+  <si>
+    <t>Ancient/Other History</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Other Science</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Long Fiction</t>
+  </si>
+  <si>
+    <t>Non-Epic Poetry</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Short Fiction/Other</t>
+  </si>
+  <si>
+    <t>Fine Arts</t>
+  </si>
+  <si>
+    <t>Visual Fine Arts</t>
+  </si>
+  <si>
+    <t>Auditory Fine Arts</t>
+  </si>
+  <si>
+    <t>Other Fine Arts</t>
+  </si>
+  <si>
+    <t>Beliefs</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Mythology</t>
+  </si>
+  <si>
+    <t>Thought</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Current Events</t>
+  </si>
+  <si>
+    <t>Miscellaneous/Other Academic</t>
+  </si>
+  <si>
+    <t>Popular Culture</t>
   </si>
   <si>
     <t>T2 0</t>
@@ -175,15 +298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.2890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.2890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.3828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -191,7 +312,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="2">
@@ -207,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,10 +347,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="6">
@@ -258,11 +379,276 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" t="n">
+        <v>-1.0</v>
       </c>
     </row>
   </sheetData>
@@ -272,26 +658,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.4296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.91796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.32421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.34765625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.95703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.03125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.01171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.41796875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1484375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="7.3984375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="14.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.0625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.50390625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="25.55078125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="13.85546875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="14.95703125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="10.0625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="13.50390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.51953125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="8.3203125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="25.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="32.0234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="23.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="8.5859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="8.359375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="11.234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="8.52734375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.27734375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="14.93359375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="11.01171875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="17.234375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="7.8359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="9.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="19.25" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="7.8046875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="9.19140625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="11.9453125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="9.4609375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="12.14453125" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="14.921875" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="6.953125" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="12.0625" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="15.875" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="32.46484375" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -299,32 +725,170 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="1">
         <v>17</v>
+      </c>
+      <c r="J4" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z4" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB4" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="AC4" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AF4" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="AG4" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="AH4" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="AI4" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="AL4" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="AM4" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AN4" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AO4" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AP4" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AQ4" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AR4" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AS4" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AT4" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AU4" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AV4" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AW4" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AX4" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AY4" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AZ4" t="s" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -341,30 +905,260 @@
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4896551724137931</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
       </c>
+      <c r="H6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9862068965517241</v>
+      </c>
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -381,10 +1175,106 @@
       <c r="F7" t="n">
         <v>1.0</v>
       </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -401,10 +1291,106 @@
       <c r="F8" t="n">
         <v>1.0</v>
       </c>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -421,45 +1407,199 @@
       <c r="F9" t="n">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s" s="1">
+      <c r="U9" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="1">
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="U10" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s" s="1">
-        <v>27</v>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -469,26 +1609,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.4296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.91796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.32421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.34765625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.95703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.03125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.01171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.41796875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1484375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="7.3984375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="14.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.0625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.50390625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="25.55078125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="8.32421875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="14.95703125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="10.0625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="13.50390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.51953125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="8.3203125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="25.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="32.0234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="23.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="8.5859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="8.359375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="11.234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="8.52734375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.27734375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="14.93359375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="11.01171875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="17.234375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="7.8359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="9.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="19.25" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="7.8046875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="9.19140625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="11.9453125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="9.4609375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="12.14453125" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="14.921875" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="6.953125" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="12.0625" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="15.875" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="32.46484375" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -496,32 +1676,170 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="1">
         <v>17</v>
+      </c>
+      <c r="J4" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z4" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB4" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="AC4" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AF4" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="AG4" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="AH4" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="AI4" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="AL4" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="AM4" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AN4" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AO4" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AP4" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AQ4" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AR4" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AS4" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AT4" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AU4" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AV4" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AW4" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AX4" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AY4" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AZ4" t="s" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -538,10 +1856,125 @@
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -558,10 +1991,106 @@
       <c r="F6" t="n">
         <v>1.0</v>
       </c>
+      <c r="U6" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -578,10 +2107,106 @@
       <c r="F7" t="n">
         <v>1.0</v>
       </c>
+      <c r="U7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -590,18 +2215,114 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>-5.0</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
       </c>
+      <c r="U8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -618,45 +2339,199 @@
       <c r="F9" t="n">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s" s="1">
-        <v>27</v>
+      <c r="U9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="U10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/bar.xlsx
+++ b/bar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
   <si>
     <t>Round</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Tossups</t>
   </si>
   <si>
-    <t>0/1/2</t>
+    <t>0/0/0</t>
   </si>
   <si>
     <t>UNHEARD</t>
@@ -119,12 +119,6 @@
   </si>
   <si>
     <t>Cdepth</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSWER: ​invasion of Earth​ </t>
   </si>
   <si>
     <t>Bonus data</t>
@@ -304,7 +298,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.3828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -312,7 +306,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="2">
@@ -320,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -328,7 +322,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -347,10 +341,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +409,7 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -427,7 +421,7 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -439,7 +433,7 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -451,7 +445,7 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -664,55 +658,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.03125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.01171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.41796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1484375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="7.3984375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="14.91796875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="25.55078125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="12.34765625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="14.95703125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.51953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="8.3203125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.3984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="25.921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="32.0234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="23.36328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="8.5859375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="8.359375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="11.234375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="8.52734375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.27734375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="14.93359375" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="11.01171875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="7.8359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="20.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="9.9765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.546875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="19.25" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="7.8046875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="9.19140625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="9.4609375" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="12.14453125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="14.921875" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="6.953125" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="12.0625" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="15.875" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="32.46484375" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.94921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.81640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.95703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.0546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="8.44140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.51953125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="9.6484375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="9.36328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="14.015625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="16.9921875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.51953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.78515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="29.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="25.89453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.7421875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="12.75" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="9.67578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.82421875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="17.046875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="12.625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="15.171875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="19.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="8.7265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.00390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="11.50390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="19.08203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="21.91015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="18.625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="8.96484375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="10.4765625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="13.13671875" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="10.69140625" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="13.65234375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="17.34765625" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="7.71875" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="18.1875" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="35.8671875" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="19.0078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -731,10 +725,10 @@
         <v>28</v>
       </c>
       <c r="P3" t="s" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -778,10 +772,10 @@
         <v>34</v>
       </c>
       <c r="P4" t="s" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s" s="1">
         <v>31</v>
@@ -790,100 +784,100 @@
         <v>32</v>
       </c>
       <c r="U4" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="V4" t="s" s="1">
+      <c r="X4" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="W4" t="s" s="1">
+      <c r="Y4" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="X4" t="s" s="1">
+      <c r="Z4" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="Y4" t="s" s="1">
+      <c r="AA4" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="Z4" t="s" s="1">
+      <c r="AB4" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AA4" t="s" s="1">
+      <c r="AC4" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AB4" t="s" s="1">
+      <c r="AD4" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AC4" t="s" s="1">
+      <c r="AE4" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AD4" t="s" s="1">
+      <c r="AF4" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="AE4" t="s" s="1">
+      <c r="AG4" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="AF4" t="s" s="1">
+      <c r="AH4" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="AG4" t="s" s="1">
+      <c r="AI4" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="AH4" t="s" s="1">
+      <c r="AJ4" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="AI4" t="s" s="1">
+      <c r="AK4" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="AJ4" t="s" s="1">
+      <c r="AL4" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="AK4" t="s" s="1">
+      <c r="AM4" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="AL4" t="s" s="1">
+      <c r="AN4" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="AM4" t="s" s="1">
+      <c r="AO4" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="AN4" t="s" s="1">
+      <c r="AP4" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="AO4" t="s" s="1">
+      <c r="AQ4" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AP4" t="s" s="1">
+      <c r="AR4" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AQ4" t="s" s="1">
+      <c r="AS4" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AR4" t="s" s="1">
+      <c r="AT4" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AS4" t="s" s="1">
+      <c r="AU4" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AT4" t="s" s="1">
+      <c r="AV4" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AU4" t="s" s="1">
+      <c r="AW4" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AV4" t="s" s="1">
+      <c r="AX4" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AW4" t="s" s="1">
+      <c r="AY4" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AX4" t="s" s="1">
+      <c r="AZ4" t="s" s="1">
         <v>70</v>
-      </c>
-      <c r="AY4" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AZ4" t="s" s="1">
-        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -903,26 +897,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.4896551724137931</v>
+        <v>5.0</v>
       </c>
       <c r="U5" t="s">
         <v>14</v>
@@ -1029,35 +1004,16 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
         <v>5.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.9862068965517241</v>
       </c>
       <c r="U6" t="s">
         <v>23</v>
@@ -1173,7 +1129,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U7" t="s">
         <v>24</v>
@@ -1289,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U8" t="s">
         <v>25</v>
@@ -1405,7 +1361,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U9" t="s">
         <v>26</v>
@@ -1615,55 +1571,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.03125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.01171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.41796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1484375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="7.3984375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="14.91796875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="25.55078125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="8.32421875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="12.34765625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="14.95703125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.51953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="8.3203125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.3984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="25.921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="32.0234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="23.36328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="8.5859375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="8.359375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="11.234375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="8.52734375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.27734375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="14.93359375" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="11.01171875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="7.8359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="20.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="9.9765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.546875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="19.25" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="7.8046875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="9.19140625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="9.4609375" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="12.14453125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="14.921875" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="6.953125" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="12.0625" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="15.875" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="32.46484375" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.94921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.81640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.95703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.0546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="8.44140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.51953125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="9.6484375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="9.36328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="14.015625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="16.9921875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.51953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.78515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="29.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="25.89453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.7421875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="12.75" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="9.67578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.82421875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="17.046875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="12.625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="15.171875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="19.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="8.7265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.00390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="11.50390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="19.08203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="21.91015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="18.625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="8.96484375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="10.4765625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="13.13671875" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="10.69140625" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="13.65234375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="17.34765625" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="7.71875" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="18.1875" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="35.8671875" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="19.0078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1682,10 +1638,10 @@
         <v>28</v>
       </c>
       <c r="P3" t="s" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1729,10 +1685,10 @@
         <v>34</v>
       </c>
       <c r="P4" t="s" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s" s="1">
         <v>31</v>
@@ -1741,105 +1697,105 @@
         <v>32</v>
       </c>
       <c r="U4" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="V4" t="s" s="1">
+      <c r="X4" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="W4" t="s" s="1">
+      <c r="Y4" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="X4" t="s" s="1">
+      <c r="Z4" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="Y4" t="s" s="1">
+      <c r="AA4" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="Z4" t="s" s="1">
+      <c r="AB4" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AA4" t="s" s="1">
+      <c r="AC4" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AB4" t="s" s="1">
+      <c r="AD4" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AC4" t="s" s="1">
+      <c r="AE4" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AD4" t="s" s="1">
+      <c r="AF4" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="AE4" t="s" s="1">
+      <c r="AG4" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="AF4" t="s" s="1">
+      <c r="AH4" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="AG4" t="s" s="1">
+      <c r="AI4" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="AH4" t="s" s="1">
+      <c r="AJ4" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="AI4" t="s" s="1">
+      <c r="AK4" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="AJ4" t="s" s="1">
+      <c r="AL4" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="AK4" t="s" s="1">
+      <c r="AM4" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="AL4" t="s" s="1">
+      <c r="AN4" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="AM4" t="s" s="1">
+      <c r="AO4" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="AN4" t="s" s="1">
+      <c r="AP4" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="AO4" t="s" s="1">
+      <c r="AQ4" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AP4" t="s" s="1">
+      <c r="AR4" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AQ4" t="s" s="1">
+      <c r="AS4" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AR4" t="s" s="1">
+      <c r="AT4" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AS4" t="s" s="1">
+      <c r="AU4" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AT4" t="s" s="1">
+      <c r="AV4" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AU4" t="s" s="1">
+      <c r="AW4" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AV4" t="s" s="1">
+      <c r="AX4" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AW4" t="s" s="1">
+      <c r="AY4" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AX4" t="s" s="1">
+      <c r="AZ4" t="s" s="1">
         <v>70</v>
-      </c>
-      <c r="AY4" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AZ4" t="s" s="1">
-        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1854,26 +1810,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="U5" t="s">
         <v>14</v>
@@ -1974,7 +1911,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -1989,10 +1926,10 @@
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V6" t="n">
         <v>0.0</v>
@@ -2090,7 +2027,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2105,10 +2042,10 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
@@ -2206,7 +2143,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2215,16 +2152,16 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V8" t="n">
         <v>0.0</v>
@@ -2322,7 +2259,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -2337,10 +2274,10 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V9" t="n">
         <v>0.0</v>
@@ -2438,7 +2375,7 @@
     </row>
     <row r="10">
       <c r="U10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V10" t="n">
         <v>0.0</v>

--- a/bar.xlsx
+++ b/bar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
   <si>
     <t>Round</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>team 0</t>
+    <t>uni a</t>
   </si>
   <si>
     <t>team 1</t>
@@ -55,135 +55,138 @@
     <t>1/0/0</t>
   </si>
   <si>
+    <t>0/1/0</t>
+  </si>
+  <si>
+    <t>UNHEARD</t>
+  </si>
+  <si>
+    <t>Bonuses</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Player data</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Powers</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>Negs</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>TUH</t>
+  </si>
+  <si>
+    <t>dylan</t>
+  </si>
+  <si>
+    <t>ethan</t>
+  </si>
+  <si>
+    <t>jonathan</t>
+  </si>
+  <si>
+    <t>Tossup data</t>
+  </si>
+  <si>
+    <t>Tossup #</t>
+  </si>
+  <si>
+    <t>Points Earned</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Cdepth</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wars of the Roses</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Bonus data</t>
+  </si>
+  <si>
+    <t>Bonus #</t>
+  </si>
+  <si>
+    <t>Points earned</t>
+  </si>
+  <si>
+    <t>Heard</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>American History</t>
+  </si>
+  <si>
+    <t>European/British History</t>
+  </si>
+  <si>
+    <t>World/Commonwealth History</t>
+  </si>
+  <si>
+    <t>Ancient/Other History</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Other Science</t>
+  </si>
+  <si>
     <t>Literature</t>
   </si>
   <si>
+    <t>Long Fiction</t>
+  </si>
+  <si>
+    <t>Non-Epic Poetry</t>
+  </si>
+  <si>
     <t>Drama</t>
   </si>
   <si>
-    <t>0/0/1</t>
-  </si>
-  <si>
-    <t>UNHEARD</t>
-  </si>
-  <si>
-    <t>Bonuses</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Player data</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Powers</t>
-  </si>
-  <si>
-    <t>10's</t>
-  </si>
-  <si>
-    <t>Negs</t>
-  </si>
-  <si>
-    <t>Total Points</t>
-  </si>
-  <si>
-    <t>TUH</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Tossup data</t>
-  </si>
-  <si>
-    <t>Tossup #</t>
-  </si>
-  <si>
-    <t>Points Earned</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Cdepth</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>invasion of Earth</t>
-  </si>
-  <si>
-    <t>Bonus data</t>
-  </si>
-  <si>
-    <t>Bonus #</t>
-  </si>
-  <si>
-    <t>Points earned</t>
-  </si>
-  <si>
-    <t>Heard</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>American History</t>
-  </si>
-  <si>
-    <t>European/British History</t>
-  </si>
-  <si>
-    <t>World/Commonwealth History</t>
-  </si>
-  <si>
-    <t>Ancient/Other History</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>Other Science</t>
-  </si>
-  <si>
-    <t>Long Fiction</t>
-  </si>
-  <si>
-    <t>Non-Epic Poetry</t>
-  </si>
-  <si>
     <t>Short Fiction/Other</t>
   </si>
   <si>
@@ -230,18 +233,6 @@
   </si>
   <si>
     <t>Popular Culture</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Moscow</t>
   </si>
 </sst>
 </file>
@@ -317,7 +308,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -325,7 +316,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -344,10 +335,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -393,7 +384,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -409,14 +400,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -428,7 +415,7 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -440,7 +427,7 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -452,7 +439,7 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -464,7 +451,7 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -476,7 +463,7 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -488,7 +475,7 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -500,7 +487,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -512,7 +499,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -524,7 +511,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -536,7 +523,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -548,7 +535,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -560,7 +547,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -572,7 +559,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -584,7 +571,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -596,7 +583,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -608,7 +595,7 @@
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -620,7 +607,7 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -632,7 +619,7 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -644,7 +631,7 @@
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -676,13 +663,13 @@
     <col min="10" max="10" width="14.91796875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="16.0390625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="17.15625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="8.32421875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="12.34765625" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="14.95703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="10.0625" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.51953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="9.03515625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="8.3203125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.3984375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="25.921875" customWidth="true" bestFit="true"/>
@@ -718,7 +705,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -726,108 +713,108 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="F4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="H4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="M4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="P4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="Q4" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="R4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V4" t="s" s="2">
+      <c r="W4" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="W4" t="s" s="2">
+      <c r="X4" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="X4" t="s" s="2">
+      <c r="Y4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="Y4" t="s" s="2">
+      <c r="Z4" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="Z4" t="s" s="2">
+      <c r="AA4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AA4" t="s" s="2">
+      <c r="AB4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AG4" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>54</v>
@@ -836,60 +823,60 @@
         <v>55</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AR4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AS4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AT4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AV4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AW4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AX4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AY4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AZ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -910,23 +897,23 @@
         <v>1.0</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
         <v>15.0</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n" s="1">
-        <v>0.6896551724137931</v>
+        <v>0.432</v>
       </c>
       <c r="U5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
@@ -1024,25 +1011,44 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
       </c>
+      <c r="H6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="n" s="1">
+        <v>0.7216494845360825</v>
+      </c>
       <c r="U6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V6" t="n">
         <v>0.0</v>
@@ -1078,7 +1084,7 @@
         <v>0.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH6" t="n">
         <v>0.0</v>
@@ -1087,7 +1093,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK6" t="n">
         <v>0.0</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -1158,7 +1164,7 @@
         <v>2.0</v>
       </c>
       <c r="U7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
@@ -1194,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH7" t="n">
         <v>0.0</v>
@@ -1203,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK7" t="n">
         <v>0.0</v>
@@ -1256,7 +1262,7 @@
     </row>
     <row r="8">
       <c r="U8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V8" t="n">
         <v>0.0</v>
@@ -1292,7 +1298,7 @@
         <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
         <v>0.0</v>
@@ -1301,7 +1307,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
         <v>0.0</v>
@@ -1359,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BA8"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1418,7 +1424,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1426,108 +1432,108 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="F4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="H4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="M4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="P4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="Q4" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="R4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V4" t="s" s="2">
+      <c r="W4" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="W4" t="s" s="2">
+      <c r="X4" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="X4" t="s" s="2">
+      <c r="Y4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="Y4" t="s" s="2">
+      <c r="Z4" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="Z4" t="s" s="2">
+      <c r="AA4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AA4" t="s" s="2">
+      <c r="AB4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AG4" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>54</v>
@@ -1536,99 +1542,60 @@
         <v>55</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AR4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AS4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AT4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AV4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AW4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AX4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AY4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AZ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" t="n" s="1">
-        <v>0.44776119402985076</v>
-      </c>
       <c r="U5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
@@ -1721,336 +1688,6 @@
         <v>0.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="U8" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ8" t="n">
         <v>0.0</v>
       </c>
     </row>
